--- a/data_rif.xlsx
+++ b/data_rif.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\IVC\GIT\rif-tax-etl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B63E59DA-62F6-4A55-99C1-227D7184C19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56291D3-552F-4275-B070-72D961FF16C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{992BA608-4E06-47AE-BF89-222DF98101E8}"/>
   </bookViews>
